--- a/Planilhas/Calculando KPIs - Feito.xlsx
+++ b/Planilhas/Calculando KPIs - Feito.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\escola de formação de lideres\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\escola de formação de lideres\git\efl\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8846C3F4-8515-4F72-861D-71B833F61789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344A3836-E2A9-461C-8702-CDD99AD15077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="16440" activeTab="1" xr2:uid="{594CD7DE-8618-4376-8CD3-10D6F4F1FC03}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{594CD7DE-8618-4376-8CD3-10D6F4F1FC03}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -4165,7 +4174,7 @@
   <dimension ref="A2:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4520,7 +4529,7 @@
   <dimension ref="A2:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4631,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="8">
-        <f>E9/(E6/COUNTA($A$9:$A$20))</f>
+        <f>SUM($E$9:E9)/(($E$6/12)*ROW(B1))</f>
         <v>0.84615384615384615</v>
       </c>
     </row>
